--- a/Reports/ForPopulation/InformationBill_UK/InformationBill_UK.xlsx
+++ b/Reports/ForPopulation/InformationBill_UK/InformationBill_UK.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>Width</t>
   </si>
@@ -199,10 +199,34 @@
     <t>Итого руб.</t>
   </si>
   <si>
-    <t>"ИТОГО к оплате на 01.".sprintf('%02d',$this-&gt;H['next_nom_month']).".".sprintf('%02d',$this-&gt;H['next_year'])." с учетом задолженности: ".round ($this-&gt;H['saldoEnd'],2)." рублей."</t>
-  </si>
-  <si>
     <t>Ед. изм.</t>
+  </si>
+  <si>
+    <t>Пеня</t>
+  </si>
+  <si>
+    <t>Block6</t>
+  </si>
+  <si>
+    <t>Block7</t>
+  </si>
+  <si>
+    <t>B2 - Пеня</t>
+  </si>
+  <si>
+    <t>G7 - Сальдо на конец</t>
+  </si>
+  <si>
+    <t>$this-&gt;H['penalty'] = $t1['penalty']</t>
+  </si>
+  <si>
+    <t>$this-&gt;H['penalty']!=0</t>
+  </si>
+  <si>
+    <t>$this-&gt;H['penalty']</t>
+  </si>
+  <si>
+    <t>"ИТОГО к оплате на 01.".sprintf('%02d',$this-&gt;H['next_nom_month']).".".sprintf('%02d',$this-&gt;H['next_year'])." с учетом задолженности: ".round ($this-&gt;H['saldoEnd'],2)-$this-&gt;H['penalty']." рублей."</t>
   </si>
 </sst>
 </file>
@@ -212,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +337,37 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -486,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -532,10 +587,6 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -549,6 +600,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -558,11 +617,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -574,6 +628,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -889,13 +949,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:AA64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:J8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="11.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="2" width="3" style="3" customWidth="1"/>
@@ -911,19 +971,19 @@
     <col min="12" max="22" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="12" customHeight="1">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:27" ht="11.1" customHeight="1">
+      <c r="A1" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="27"/>
       <c r="L1" t="s">
         <v>0</v>
@@ -935,340 +995,426 @@
         <v>2</v>
       </c>
       <c r="O1" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="12" customHeight="1">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:27" ht="11.1" customHeight="1">
+      <c r="A2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-    </row>
-    <row r="3" spans="1:22" ht="12" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="1:27" ht="11.1" customHeight="1">
+      <c r="A3" s="52"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="29"/>
+      <c r="X3" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+    </row>
+    <row r="4" spans="1:27" ht="11.1" customHeight="1">
+      <c r="A4" s="17" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="12" customHeight="1">
-      <c r="A4" s="17" t="s">
-        <v>53</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="12" customHeight="1">
+      <c r="J4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+    </row>
+    <row r="5" spans="1:27" ht="11.1" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="12" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="X5" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+    </row>
+    <row r="6" spans="1:27" ht="11.1" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+    </row>
+    <row r="7" spans="1:27" ht="11.1" customHeight="1">
+      <c r="A7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="G7" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H7" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J7" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="12" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+    </row>
+    <row r="8" spans="1:27" ht="11.1" customHeight="1">
+      <c r="A8" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B8" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="51" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="57"/>
+      <c r="K8" s="30"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+    </row>
+    <row r="9" spans="1:27" ht="11.1" customHeight="1">
+      <c r="A9" s="28"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="30"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+    </row>
+    <row r="10" spans="1:27" ht="11.1" customHeight="1">
+      <c r="B10" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="50"/>
+      <c r="K10" s="30"/>
+      <c r="M10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="9"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+    </row>
+    <row r="11" spans="1:27" ht="11.1" customHeight="1">
+      <c r="B11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="51"/>
+      <c r="K11" s="31"/>
+      <c r="M11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="10">
+        <v>1</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11" s="8">
+        <v>0</v>
+      </c>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+    </row>
+    <row r="12" spans="1:27" ht="11.1" customHeight="1">
+      <c r="A12" s="21"/>
+      <c r="M12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="12">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+    </row>
+    <row r="13" spans="1:27" ht="11.1" customHeight="1">
+      <c r="A13" s="18"/>
+      <c r="B13" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="41"/>
+      <c r="K13" s="24"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+    </row>
+    <row r="14" spans="1:27" ht="11.1" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="41"/>
+      <c r="K14" s="24"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+    </row>
+    <row r="15" spans="1:27" ht="11.1" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="41"/>
+      <c r="K15" s="24"/>
+      <c r="M15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+    </row>
+    <row r="16" spans="1:27" ht="11.1" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="32"/>
-    </row>
-    <row r="8" spans="1:22" ht="12" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="32"/>
-    </row>
-    <row r="9" spans="1:22" ht="12" customHeight="1">
-      <c r="B9" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="32"/>
-      <c r="M9" s="8" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="41"/>
+      <c r="K16" s="24"/>
+      <c r="M16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="12">
         <v>1</v>
       </c>
-      <c r="N9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="8">
-        <v>1</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q9" s="9"/>
-    </row>
-    <row r="10" spans="1:22" ht="12" customHeight="1">
-      <c r="B10" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="33"/>
-      <c r="M10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="10">
-        <v>1</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="V10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="12" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="M11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="12">
-        <v>7</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="1:22" ht="12" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="45"/>
-      <c r="K12" s="24"/>
-    </row>
-    <row r="13" spans="1:22" ht="12" customHeight="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="1:22" ht="12" customHeight="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="45"/>
-      <c r="K14" s="24"/>
-    </row>
-    <row r="15" spans="1:22" ht="12" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="43" t="s">
+      <c r="P16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+    </row>
+    <row r="17" spans="1:27" ht="11.1" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="39" t="s">
         <v>19</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="45"/>
-      <c r="K15" s="24"/>
-    </row>
-    <row r="16" spans="1:22" ht="12" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="1:22" ht="12" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="38" t="s">
-        <v>61</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
@@ -1276,202 +1422,264 @@
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="34"/>
+      <c r="I17" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="41"/>
+      <c r="K17" s="24"/>
       <c r="M17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O17" s="12">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+    </row>
+    <row r="18" spans="1:27" ht="11.1" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+    </row>
+    <row r="19" spans="1:27" ht="11.1" customHeight="1">
+      <c r="A19" s="25"/>
+      <c r="B19" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="32"/>
+      <c r="M19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="T17" s="8" t="s">
+      <c r="N19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="T19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="U17" s="8" t="s">
+      <c r="U19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="V17" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="12" customHeight="1">
-      <c r="A18" s="26"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="34"/>
-    </row>
-    <row r="22" spans="1:22" ht="12" customHeight="1">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-    </row>
-    <row r="23" spans="1:22" ht="12" customHeight="1">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-    </row>
-    <row r="24" spans="1:22" ht="12" customHeight="1">
+      <c r="V19" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="11.1" customHeight="1">
+      <c r="A20" s="26"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="24" spans="1:27" ht="11.1" customHeight="1">
       <c r="B24" s="13"/>
-    </row>
-    <row r="25" spans="1:22" ht="12" customHeight="1">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:27" ht="11.1" customHeight="1">
       <c r="B25" s="13"/>
-    </row>
-    <row r="26" spans="1:22" ht="12" customHeight="1">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="1:27" ht="11.1" customHeight="1">
       <c r="B26" s="13"/>
     </row>
-    <row r="27" spans="1:22" ht="12" customHeight="1">
+    <row r="27" spans="1:27" ht="11.1" customHeight="1">
       <c r="B27" s="13"/>
     </row>
-    <row r="28" spans="1:22" ht="12" customHeight="1">
+    <row r="28" spans="1:27" ht="11.1" customHeight="1">
       <c r="B28" s="13"/>
     </row>
-    <row r="29" spans="1:22" ht="12" customHeight="1">
+    <row r="29" spans="1:27" ht="11.1" customHeight="1">
       <c r="B29" s="13"/>
     </row>
-    <row r="30" spans="1:22" ht="12" customHeight="1">
+    <row r="30" spans="1:27" ht="11.1" customHeight="1">
       <c r="B30" s="13"/>
     </row>
-    <row r="31" spans="1:22" ht="12" customHeight="1">
+    <row r="31" spans="1:27" ht="11.1" customHeight="1">
       <c r="B31" s="13"/>
     </row>
-    <row r="32" spans="1:22" ht="12" customHeight="1">
+    <row r="32" spans="1:27" ht="11.1" customHeight="1">
       <c r="B32" s="13"/>
     </row>
-    <row r="33" spans="2:2" ht="12" customHeight="1">
+    <row r="33" spans="2:2" ht="11.1" customHeight="1">
       <c r="B33" s="13"/>
     </row>
-    <row r="34" spans="2:2" ht="12" customHeight="1">
+    <row r="34" spans="2:2" ht="11.1" customHeight="1">
       <c r="B34" s="13"/>
     </row>
-    <row r="35" spans="2:2" ht="12" customHeight="1">
+    <row r="35" spans="2:2" ht="11.1" customHeight="1">
       <c r="B35" s="13"/>
     </row>
-    <row r="36" spans="2:2" ht="12" customHeight="1">
+    <row r="36" spans="2:2" ht="11.1" customHeight="1">
       <c r="B36" s="13"/>
     </row>
-    <row r="37" spans="2:2" ht="12" customHeight="1">
+    <row r="37" spans="2:2" ht="11.1" customHeight="1">
       <c r="B37" s="13"/>
     </row>
-    <row r="38" spans="2:2" ht="12" customHeight="1">
+    <row r="38" spans="2:2" ht="11.1" customHeight="1">
       <c r="B38" s="13"/>
     </row>
-    <row r="39" spans="2:2" ht="12" customHeight="1">
+    <row r="39" spans="2:2" ht="11.1" customHeight="1">
       <c r="B39" s="13"/>
     </row>
-    <row r="40" spans="2:2" ht="12" customHeight="1">
+    <row r="40" spans="2:2" ht="11.1" customHeight="1">
       <c r="B40" s="13"/>
     </row>
-    <row r="41" spans="2:2" ht="12" customHeight="1">
+    <row r="41" spans="2:2" ht="11.1" customHeight="1">
       <c r="B41" s="13"/>
     </row>
-    <row r="42" spans="2:2" ht="12" customHeight="1">
+    <row r="42" spans="2:2" ht="11.1" customHeight="1">
       <c r="B42" s="13"/>
     </row>
-    <row r="43" spans="2:2" ht="12" customHeight="1">
+    <row r="43" spans="2:2" ht="11.1" customHeight="1">
       <c r="B43" s="13"/>
     </row>
-    <row r="44" spans="2:2" ht="12" customHeight="1">
+    <row r="44" spans="2:2" ht="11.1" customHeight="1">
       <c r="B44" s="13"/>
     </row>
-    <row r="45" spans="2:2" ht="12" customHeight="1">
+    <row r="45" spans="2:2" ht="11.1" customHeight="1">
       <c r="B45" s="13"/>
     </row>
-    <row r="46" spans="2:2" ht="12" customHeight="1">
+    <row r="46" spans="2:2" ht="11.1" customHeight="1">
       <c r="B46" s="13"/>
     </row>
-    <row r="47" spans="2:2" ht="12" customHeight="1">
+    <row r="47" spans="2:2" ht="11.1" customHeight="1">
       <c r="B47" s="13"/>
     </row>
-    <row r="48" spans="2:2" ht="12" customHeight="1">
+    <row r="48" spans="2:2" ht="11.1" customHeight="1">
       <c r="B48" s="13"/>
     </row>
-    <row r="49" spans="2:2" ht="12" customHeight="1">
+    <row r="49" spans="2:2" ht="11.1" customHeight="1">
       <c r="B49" s="13"/>
     </row>
-    <row r="50" spans="2:2" ht="12" customHeight="1">
+    <row r="50" spans="2:2" ht="11.1" customHeight="1">
       <c r="B50" s="13"/>
     </row>
-    <row r="51" spans="2:2" ht="12" customHeight="1">
+    <row r="51" spans="2:2" ht="11.1" customHeight="1">
       <c r="B51" s="13"/>
     </row>
-    <row r="52" spans="2:2" ht="12" customHeight="1">
+    <row r="52" spans="2:2" ht="11.1" customHeight="1">
       <c r="B52" s="13"/>
     </row>
-    <row r="53" spans="2:2" ht="12" customHeight="1">
+    <row r="53" spans="2:2" ht="11.1" customHeight="1">
       <c r="B53" s="13"/>
     </row>
-    <row r="54" spans="2:2" ht="12" customHeight="1">
+    <row r="54" spans="2:2" ht="11.1" customHeight="1">
       <c r="B54" s="13"/>
     </row>
-    <row r="55" spans="2:2" ht="12" customHeight="1">
+    <row r="55" spans="2:2" ht="11.1" customHeight="1">
       <c r="B55" s="13"/>
     </row>
-    <row r="56" spans="2:2" ht="12" customHeight="1">
+    <row r="56" spans="2:2" ht="11.1" customHeight="1">
       <c r="B56" s="13"/>
     </row>
-    <row r="57" spans="2:2" ht="12" customHeight="1">
+    <row r="57" spans="2:2" ht="11.1" customHeight="1">
       <c r="B57" s="13"/>
     </row>
-    <row r="58" spans="2:2" ht="12" customHeight="1">
+    <row r="58" spans="2:2" ht="11.1" customHeight="1">
       <c r="B58" s="13"/>
     </row>
-    <row r="59" spans="2:2" ht="12" customHeight="1">
+    <row r="59" spans="2:2" ht="11.1" customHeight="1">
       <c r="B59" s="13"/>
     </row>
-    <row r="60" spans="2:2" ht="12" customHeight="1">
+    <row r="60" spans="2:2" ht="11.1" customHeight="1">
       <c r="B60" s="13"/>
     </row>
-    <row r="61" spans="2:2" ht="12" customHeight="1">
+    <row r="61" spans="2:2" ht="11.1" customHeight="1">
       <c r="B61" s="13"/>
     </row>
-    <row r="62" spans="2:2" ht="12" customHeight="1">
+    <row r="62" spans="2:2" ht="11.1" customHeight="1">
       <c r="B62" s="13"/>
     </row>
+    <row r="63" spans="2:2" ht="11.1" customHeight="1">
+      <c r="B63" s="13"/>
+    </row>
+    <row r="64" spans="2:2" ht="11.1" customHeight="1">
+      <c r="B64" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B17:J17"/>
+  <mergeCells count="33">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:J3"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B19:J19"/>
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="X13:AA14"/>
+    <mergeCell ref="X15:AA16"/>
+    <mergeCell ref="X17:AA18"/>
+    <mergeCell ref="X3:AA4"/>
+    <mergeCell ref="X5:AA6"/>
+    <mergeCell ref="X7:AA8"/>
+    <mergeCell ref="X9:AA10"/>
+    <mergeCell ref="X11:AA12"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.27559055118110237" bottom="0.27559055118110237" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="46" fitToHeight="10000" orientation="portrait" r:id="rId1"/>

--- a/Reports/ForPopulation/InformationBill_UK/InformationBill_UK.xlsx
+++ b/Reports/ForPopulation/InformationBill_UK/InformationBill_UK.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>Width</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>"ИТОГО к оплате на 01.".sprintf('%02d',$this-&gt;H['next_nom_month']).".".sprintf('%02d',$this-&gt;H['next_year'])." с учетом задолженности: ".round ($this-&gt;H['saldoEnd'],2)-$this-&gt;H['penalty']." рублей."</t>
+  </si>
+  <si>
+    <t>H7 - Сальдо на начало</t>
   </si>
 </sst>
 </file>
@@ -602,7 +605,30 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -628,30 +654,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -952,7 +955,7 @@
   <dimension ref="A1:AA64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="X9" sqref="X9:AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.1" customHeight="1"/>
@@ -972,18 +975,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="11.1" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
       <c r="K1" s="27"/>
       <c r="L1" t="s">
         <v>0</v>
@@ -1002,42 +1005,42 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="11.1" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="38" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:27" ht="11.1" customHeight="1">
-      <c r="A3" s="52"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="36"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="29"/>
-      <c r="X3" s="38" t="s">
+      <c r="X3" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
     </row>
     <row r="4" spans="1:27" ht="11.1" customHeight="1">
       <c r="A4" s="17" t="s">
@@ -1057,10 +1060,10 @@
       <c r="K4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
     </row>
     <row r="5" spans="1:27" ht="11.1" customHeight="1">
       <c r="A5" s="17" t="s">
@@ -1080,12 +1083,12 @@
       <c r="K5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="38" t="s">
+      <c r="X5" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
     </row>
     <row r="6" spans="1:27" ht="11.1" customHeight="1">
       <c r="A6" s="17" t="s">
@@ -1105,10 +1108,10 @@
       <c r="K6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
     </row>
     <row r="7" spans="1:27" ht="11.1" customHeight="1">
       <c r="A7" s="17" t="s">
@@ -1133,66 +1136,68 @@
       <c r="K7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
+      <c r="X7" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
     </row>
     <row r="8" spans="1:27" ht="11.1" customHeight="1">
       <c r="A8" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="54" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="I8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="57"/>
+      <c r="J8" s="43"/>
       <c r="K8" s="30"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
     </row>
     <row r="9" spans="1:27" ht="11.1" customHeight="1">
       <c r="A9" s="28"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
       <c r="K9" s="30"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
     </row>
     <row r="10" spans="1:27" ht="11.1" customHeight="1">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="35" t="s">
         <v>55</v>
       </c>
@@ -1208,10 +1213,10 @@
       <c r="H10" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="50"/>
+      <c r="J10" s="57"/>
       <c r="K10" s="30"/>
       <c r="M10" s="8" t="s">
         <v>1</v>
@@ -1226,18 +1231,18 @@
         <v>28</v>
       </c>
       <c r="Q10" s="9"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
     </row>
     <row r="11" spans="1:27" ht="11.1" customHeight="1">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="14"/>
       <c r="G11" s="15" t="s">
         <v>29</v>
@@ -1245,10 +1250,10 @@
       <c r="H11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="51"/>
+      <c r="J11" s="58"/>
       <c r="K11" s="31"/>
       <c r="M11" s="10" t="s">
         <v>32</v>
@@ -1277,10 +1282,10 @@
       <c r="V11" s="8">
         <v>0</v>
       </c>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
     </row>
     <row r="12" spans="1:27" ht="11.1" customHeight="1">
       <c r="A12" s="21"/>
@@ -1298,68 +1303,68 @@
       </c>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
     </row>
     <row r="13" spans="1:27" ht="11.1" customHeight="1">
       <c r="A13" s="18"/>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="41"/>
+      <c r="J13" s="48"/>
       <c r="K13" s="24"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
     </row>
     <row r="14" spans="1:27" ht="11.1" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40" t="s">
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="41"/>
+      <c r="J14" s="48"/>
       <c r="K14" s="24"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
     </row>
     <row r="15" spans="1:27" ht="11.1" customHeight="1">
       <c r="A15" s="19"/>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="41"/>
+      <c r="J15" s="48"/>
       <c r="K15" s="24"/>
       <c r="M15" s="12" t="s">
         <v>38</v>
@@ -1367,26 +1372,26 @@
       <c r="N15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
     </row>
     <row r="16" spans="1:27" ht="11.1" customHeight="1">
       <c r="A16" s="19"/>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40" t="s">
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="41"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="24"/>
       <c r="M16" s="12" t="s">
         <v>36</v>
@@ -1406,26 +1411,26 @@
       <c r="U16" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
     </row>
     <row r="17" spans="1:27" ht="11.1" customHeight="1">
       <c r="A17" s="19"/>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="41"/>
+      <c r="J17" s="48"/>
       <c r="K17" s="24"/>
       <c r="M17" s="12" t="s">
         <v>36</v>
@@ -1439,10 +1444,10 @@
       <c r="P17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
     </row>
     <row r="18" spans="1:27" ht="11.1" customHeight="1">
       <c r="A18" s="19"/>
@@ -1456,24 +1461,24 @@
       <c r="I18" s="23"/>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="59"/>
     </row>
     <row r="19" spans="1:27" ht="11.1" customHeight="1">
       <c r="A19" s="25"/>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
       <c r="K19" s="32"/>
       <c r="M19" s="12" t="s">
         <v>38</v>
@@ -1647,15 +1652,14 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:J3"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="X13:AA14"/>
+    <mergeCell ref="X15:AA16"/>
+    <mergeCell ref="X17:AA18"/>
+    <mergeCell ref="X3:AA4"/>
+    <mergeCell ref="X5:AA6"/>
+    <mergeCell ref="X7:AA8"/>
+    <mergeCell ref="X9:AA10"/>
+    <mergeCell ref="X11:AA12"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="B19:J19"/>
@@ -1672,14 +1676,15 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="X13:AA14"/>
-    <mergeCell ref="X15:AA16"/>
-    <mergeCell ref="X17:AA18"/>
-    <mergeCell ref="X3:AA4"/>
-    <mergeCell ref="X5:AA6"/>
-    <mergeCell ref="X7:AA8"/>
-    <mergeCell ref="X9:AA10"/>
-    <mergeCell ref="X11:AA12"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:J3"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.27559055118110237" bottom="0.27559055118110237" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="46" fitToHeight="10000" orientation="portrait" r:id="rId1"/>

--- a/Reports/ForPopulation/InformationBill_UK/InformationBill_UK.xlsx
+++ b/Reports/ForPopulation/InformationBill_UK/InformationBill_UK.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t>Width</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>H7 - Сальдо на начало</t>
+  </si>
+  <si>
+    <t>EndReport</t>
   </si>
 </sst>
 </file>
@@ -239,7 +242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +374,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -544,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -605,30 +615,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -654,7 +641,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -952,10 +963,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA64"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9:AA10"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.1" customHeight="1"/>
@@ -974,19 +985,19 @@
     <col min="12" max="22" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="11.1" customHeight="1">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:22" ht="11.1" customHeight="1">
+      <c r="A1" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="27"/>
       <c r="L1" t="s">
         <v>0</v>
@@ -1004,45 +1015,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="11.1" customHeight="1">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:22" ht="11.1" customHeight="1">
+      <c r="A2" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:27" ht="11.1" customHeight="1">
-      <c r="A3" s="38"/>
+    <row r="3" spans="1:22" ht="11.1" customHeight="1">
+      <c r="A3" s="52"/>
       <c r="B3" s="36"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
       <c r="K3" s="29"/>
-      <c r="X3" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-    </row>
-    <row r="4" spans="1:27" ht="11.1" customHeight="1">
+    </row>
+    <row r="4" spans="1:22" ht="11.1" customHeight="1">
       <c r="A4" s="17" t="s">
         <v>40</v>
       </c>
@@ -1060,12 +1065,8 @@
       <c r="K4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-    </row>
-    <row r="5" spans="1:27" ht="11.1" customHeight="1">
+    </row>
+    <row r="5" spans="1:22" ht="11.1" customHeight="1">
       <c r="A5" s="17" t="s">
         <v>53</v>
       </c>
@@ -1083,14 +1084,8 @@
       <c r="K5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="59"/>
-    </row>
-    <row r="6" spans="1:27" ht="11.1" customHeight="1">
+    </row>
+    <row r="6" spans="1:22" ht="11.1" customHeight="1">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
@@ -1108,12 +1103,8 @@
       <c r="K6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-    </row>
-    <row r="7" spans="1:27" ht="11.1" customHeight="1">
+    </row>
+    <row r="7" spans="1:22" ht="11.1" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
@@ -1136,68 +1127,54 @@
       <c r="K7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="X7" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-    </row>
-    <row r="8" spans="1:27" ht="11.1" customHeight="1">
+    </row>
+    <row r="8" spans="1:22" ht="11.1" customHeight="1">
       <c r="A8" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="40" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="43"/>
+      <c r="J8" s="57"/>
       <c r="K8" s="30"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-    </row>
-    <row r="9" spans="1:27" ht="11.1" customHeight="1">
+    </row>
+    <row r="9" spans="1:22" ht="11.1" customHeight="1">
       <c r="A9" s="28"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="45"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
       <c r="K9" s="30"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-    </row>
-    <row r="10" spans="1:27" ht="11.1" customHeight="1">
-      <c r="B10" s="54" t="s">
+    </row>
+    <row r="10" spans="1:22" ht="11.1" customHeight="1">
+      <c r="B10" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="35" t="s">
         <v>55</v>
       </c>
@@ -1213,10 +1190,10 @@
       <c r="H10" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="56" t="s">
+      <c r="I10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="57"/>
+      <c r="J10" s="50"/>
       <c r="K10" s="30"/>
       <c r="M10" s="8" t="s">
         <v>1</v>
@@ -1231,18 +1208,14 @@
         <v>28</v>
       </c>
       <c r="Q10" s="9"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-    </row>
-    <row r="11" spans="1:27" ht="11.1" customHeight="1">
-      <c r="B11" s="46" t="s">
+    </row>
+    <row r="11" spans="1:22" ht="11.1" customHeight="1">
+      <c r="B11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="14"/>
       <c r="G11" s="15" t="s">
         <v>29</v>
@@ -1250,10 +1223,10 @@
       <c r="H11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="58"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="31"/>
       <c r="M11" s="10" t="s">
         <v>32</v>
@@ -1282,12 +1255,8 @@
       <c r="V11" s="8">
         <v>0</v>
       </c>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-    </row>
-    <row r="12" spans="1:27" ht="11.1" customHeight="1">
+    </row>
+    <row r="12" spans="1:22" ht="11.1" customHeight="1">
       <c r="A12" s="21"/>
       <c r="M12" s="12" t="s">
         <v>36</v>
@@ -1303,68 +1272,56 @@
       </c>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-    </row>
-    <row r="13" spans="1:27" ht="11.1" customHeight="1">
+    </row>
+    <row r="13" spans="1:22" ht="11.1" customHeight="1">
       <c r="A13" s="18"/>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="48"/>
+      <c r="J13" s="41"/>
       <c r="K13" s="24"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-    </row>
-    <row r="14" spans="1:27" ht="11.1" customHeight="1">
+    </row>
+    <row r="14" spans="1:22" ht="11.1" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="47" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="48"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="24"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-    </row>
-    <row r="15" spans="1:27" ht="11.1" customHeight="1">
+    </row>
+    <row r="15" spans="1:22" ht="11.1" customHeight="1">
       <c r="A15" s="19"/>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="47" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="48"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="24"/>
       <c r="M15" s="12" t="s">
         <v>38</v>
@@ -1372,26 +1329,22 @@
       <c r="N15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-    </row>
-    <row r="16" spans="1:27" ht="11.1" customHeight="1">
+    </row>
+    <row r="16" spans="1:22" ht="11.1" customHeight="1">
       <c r="A16" s="19"/>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="48"/>
+      <c r="J16" s="41"/>
       <c r="K16" s="24"/>
       <c r="M16" s="12" t="s">
         <v>36</v>
@@ -1411,26 +1364,22 @@
       <c r="U16" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-    </row>
-    <row r="17" spans="1:27" ht="11.1" customHeight="1">
+    </row>
+    <row r="17" spans="1:22" ht="11.1" customHeight="1">
       <c r="A17" s="19"/>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="47" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="48"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="24"/>
       <c r="M17" s="12" t="s">
         <v>36</v>
@@ -1444,12 +1393,8 @@
       <c r="P17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-    </row>
-    <row r="18" spans="1:27" ht="11.1" customHeight="1">
+    </row>
+    <row r="18" spans="1:22" ht="11.1" customHeight="1">
       <c r="A18" s="19"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -1461,24 +1406,20 @@
       <c r="I18" s="23"/>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59"/>
-    </row>
-    <row r="19" spans="1:27" ht="11.1" customHeight="1">
+    </row>
+    <row r="19" spans="1:22" ht="11.1" customHeight="1">
       <c r="A19" s="25"/>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
       <c r="K19" s="32"/>
       <c r="M19" s="12" t="s">
         <v>38</v>
@@ -1496,7 +1437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="11.1" customHeight="1">
+    <row r="20" spans="1:22" ht="11.1" customHeight="1">
       <c r="A20" s="26"/>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -1509,7 +1450,12 @@
       <c r="J20" s="33"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="24" spans="1:27" ht="11.1" customHeight="1">
+    <row r="21" spans="1:22" ht="11.1" customHeight="1">
+      <c r="M21" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="11.1" customHeight="1">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -1521,7 +1467,7 @@
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
     </row>
-    <row r="25" spans="1:27" ht="11.1" customHeight="1">
+    <row r="25" spans="1:22" ht="11.1" customHeight="1">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -1533,73 +1479,143 @@
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:27" ht="11.1" customHeight="1">
+    <row r="26" spans="1:22" ht="11.1" customHeight="1">
       <c r="B26" s="13"/>
-    </row>
-    <row r="27" spans="1:27" ht="11.1" customHeight="1">
+      <c r="C26" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+    </row>
+    <row r="27" spans="1:22" ht="11.1" customHeight="1">
       <c r="B27" s="13"/>
-    </row>
-    <row r="28" spans="1:27" ht="11.1" customHeight="1">
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+    </row>
+    <row r="28" spans="1:22" ht="11.1" customHeight="1">
       <c r="B28" s="13"/>
-    </row>
-    <row r="29" spans="1:27" ht="11.1" customHeight="1">
+      <c r="C28" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+    </row>
+    <row r="29" spans="1:22" ht="11.1" customHeight="1">
       <c r="B29" s="13"/>
-    </row>
-    <row r="30" spans="1:27" ht="11.1" customHeight="1">
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+    </row>
+    <row r="30" spans="1:22" ht="11.1" customHeight="1">
       <c r="B30" s="13"/>
-    </row>
-    <row r="31" spans="1:27" ht="11.1" customHeight="1">
+      <c r="C30" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+    </row>
+    <row r="31" spans="1:22" ht="11.1" customHeight="1">
       <c r="B31" s="13"/>
-    </row>
-    <row r="32" spans="1:27" ht="11.1" customHeight="1">
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+    </row>
+    <row r="32" spans="1:22" ht="11.1" customHeight="1">
       <c r="B32" s="13"/>
-    </row>
-    <row r="33" spans="2:2" ht="11.1" customHeight="1">
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+    </row>
+    <row r="33" spans="2:6" ht="11.1" customHeight="1">
       <c r="B33" s="13"/>
-    </row>
-    <row r="34" spans="2:2" ht="11.1" customHeight="1">
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+    </row>
+    <row r="34" spans="2:6" ht="11.1" customHeight="1">
       <c r="B34" s="13"/>
-    </row>
-    <row r="35" spans="2:2" ht="11.1" customHeight="1">
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+    </row>
+    <row r="35" spans="2:6" ht="11.1" customHeight="1">
       <c r="B35" s="13"/>
-    </row>
-    <row r="36" spans="2:2" ht="11.1" customHeight="1">
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+    </row>
+    <row r="36" spans="2:6" ht="11.1" customHeight="1">
       <c r="B36" s="13"/>
-    </row>
-    <row r="37" spans="2:2" ht="11.1" customHeight="1">
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+    </row>
+    <row r="37" spans="2:6" ht="11.1" customHeight="1">
       <c r="B37" s="13"/>
-    </row>
-    <row r="38" spans="2:2" ht="11.1" customHeight="1">
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+    </row>
+    <row r="38" spans="2:6" ht="11.1" customHeight="1">
       <c r="B38" s="13"/>
-    </row>
-    <row r="39" spans="2:2" ht="11.1" customHeight="1">
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+    </row>
+    <row r="39" spans="2:6" ht="11.1" customHeight="1">
       <c r="B39" s="13"/>
-    </row>
-    <row r="40" spans="2:2" ht="11.1" customHeight="1">
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+    </row>
+    <row r="40" spans="2:6" ht="11.1" customHeight="1">
       <c r="B40" s="13"/>
-    </row>
-    <row r="41" spans="2:2" ht="11.1" customHeight="1">
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+    </row>
+    <row r="41" spans="2:6" ht="11.1" customHeight="1">
       <c r="B41" s="13"/>
-    </row>
-    <row r="42" spans="2:2" ht="11.1" customHeight="1">
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+    </row>
+    <row r="42" spans="2:6" ht="11.1" customHeight="1">
       <c r="B42" s="13"/>
     </row>
-    <row r="43" spans="2:2" ht="11.1" customHeight="1">
+    <row r="43" spans="2:6" ht="11.1" customHeight="1">
       <c r="B43" s="13"/>
     </row>
-    <row r="44" spans="2:2" ht="11.1" customHeight="1">
+    <row r="44" spans="2:6" ht="11.1" customHeight="1">
       <c r="B44" s="13"/>
     </row>
-    <row r="45" spans="2:2" ht="11.1" customHeight="1">
+    <row r="45" spans="2:6" ht="11.1" customHeight="1">
       <c r="B45" s="13"/>
     </row>
-    <row r="46" spans="2:2" ht="11.1" customHeight="1">
+    <row r="46" spans="2:6" ht="11.1" customHeight="1">
       <c r="B46" s="13"/>
     </row>
-    <row r="47" spans="2:2" ht="11.1" customHeight="1">
+    <row r="47" spans="2:6" ht="11.1" customHeight="1">
       <c r="B47" s="13"/>
     </row>
-    <row r="48" spans="2:2" ht="11.1" customHeight="1">
+    <row r="48" spans="2:6" ht="11.1" customHeight="1">
       <c r="B48" s="13"/>
     </row>
     <row r="49" spans="2:2" ht="11.1" customHeight="1">
@@ -1652,14 +1668,15 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="X13:AA14"/>
-    <mergeCell ref="X15:AA16"/>
-    <mergeCell ref="X17:AA18"/>
-    <mergeCell ref="X3:AA4"/>
-    <mergeCell ref="X5:AA6"/>
-    <mergeCell ref="X7:AA8"/>
-    <mergeCell ref="X9:AA10"/>
-    <mergeCell ref="X11:AA12"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:J3"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="B19:J19"/>
@@ -1676,15 +1693,14 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:J3"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C36:F37"/>
+    <mergeCell ref="C38:F39"/>
+    <mergeCell ref="C40:F41"/>
+    <mergeCell ref="C26:F27"/>
+    <mergeCell ref="C28:F29"/>
+    <mergeCell ref="C30:F31"/>
+    <mergeCell ref="C32:F33"/>
+    <mergeCell ref="C34:F35"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.27559055118110237" bottom="0.27559055118110237" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="46" fitToHeight="10000" orientation="portrait" r:id="rId1"/>

--- a/Reports/ForPopulation/InformationBill_UK/InformationBill_UK.xlsx
+++ b/Reports/ForPopulation/InformationBill_UK/InformationBill_UK.xlsx
@@ -554,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -615,7 +615,31 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -641,31 +665,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -966,7 +967,7 @@
   <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.1" customHeight="1"/>
@@ -986,18 +987,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="11.1" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="27"/>
       <c r="L1" t="s">
         <v>0</v>
@@ -1016,35 +1017,35 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="11.1" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="39" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:22" ht="11.1" customHeight="1">
-      <c r="A3" s="52"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="36"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="11.1" customHeight="1">
@@ -1132,53 +1133,53 @@
       <c r="A8" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="54" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="I8" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="57"/>
+      <c r="J8" s="44"/>
       <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:22" ht="11.1" customHeight="1">
       <c r="A9" s="28"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
       <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:22" ht="11.1" customHeight="1">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="61" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -1190,10 +1191,10 @@
       <c r="H10" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="50"/>
+      <c r="J10" s="58"/>
       <c r="K10" s="30"/>
       <c r="M10" s="8" t="s">
         <v>1</v>
@@ -1210,12 +1211,12 @@
       <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="1:22" ht="11.1" customHeight="1">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="14"/>
       <c r="G11" s="15" t="s">
         <v>29</v>
@@ -1223,10 +1224,10 @@
       <c r="H11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="51"/>
+      <c r="J11" s="59"/>
       <c r="K11" s="31"/>
       <c r="M11" s="10" t="s">
         <v>32</v>
@@ -1275,53 +1276,53 @@
     </row>
     <row r="13" spans="1:22" ht="11.1" customHeight="1">
       <c r="A13" s="18"/>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40" t="s">
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="41"/>
+      <c r="J13" s="49"/>
       <c r="K13" s="24"/>
     </row>
     <row r="14" spans="1:22" ht="11.1" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="41"/>
+      <c r="J14" s="49"/>
       <c r="K14" s="24"/>
     </row>
     <row r="15" spans="1:22" ht="11.1" customHeight="1">
       <c r="A15" s="19"/>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="41"/>
+      <c r="J15" s="49"/>
       <c r="K15" s="24"/>
       <c r="M15" s="12" t="s">
         <v>38</v>
@@ -1332,19 +1333,19 @@
     </row>
     <row r="16" spans="1:22" ht="11.1" customHeight="1">
       <c r="A16" s="19"/>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="41"/>
+      <c r="J16" s="49"/>
       <c r="K16" s="24"/>
       <c r="M16" s="12" t="s">
         <v>36</v>
@@ -1367,19 +1368,19 @@
     </row>
     <row r="17" spans="1:22" ht="11.1" customHeight="1">
       <c r="A17" s="19"/>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="41"/>
+      <c r="J17" s="49"/>
       <c r="K17" s="24"/>
       <c r="M17" s="12" t="s">
         <v>36</v>
@@ -1409,17 +1410,17 @@
     </row>
     <row r="19" spans="1:22" ht="11.1" customHeight="1">
       <c r="A19" s="25"/>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
       <c r="K19" s="32"/>
       <c r="M19" s="12" t="s">
         <v>38</v>
@@ -1451,7 +1452,7 @@
       <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:22" ht="11.1" customHeight="1">
-      <c r="M21" s="60" t="s">
+      <c r="M21" s="38" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1481,121 +1482,121 @@
     </row>
     <row r="26" spans="1:22" ht="11.1" customHeight="1">
       <c r="B26" s="13"/>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
     </row>
     <row r="27" spans="1:22" ht="11.1" customHeight="1">
       <c r="B27" s="13"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
     </row>
     <row r="28" spans="1:22" ht="11.1" customHeight="1">
       <c r="B28" s="13"/>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:22" ht="11.1" customHeight="1">
       <c r="B29" s="13"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
     </row>
     <row r="30" spans="1:22" ht="11.1" customHeight="1">
       <c r="B30" s="13"/>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:22" ht="11.1" customHeight="1">
       <c r="B31" s="13"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
     </row>
     <row r="32" spans="1:22" ht="11.1" customHeight="1">
       <c r="B32" s="13"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
     </row>
     <row r="33" spans="2:6" ht="11.1" customHeight="1">
       <c r="B33" s="13"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
     </row>
     <row r="34" spans="2:6" ht="11.1" customHeight="1">
       <c r="B34" s="13"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
     </row>
     <row r="35" spans="2:6" ht="11.1" customHeight="1">
       <c r="B35" s="13"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
     </row>
     <row r="36" spans="2:6" ht="11.1" customHeight="1">
       <c r="B36" s="13"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
     </row>
     <row r="37" spans="2:6" ht="11.1" customHeight="1">
       <c r="B37" s="13"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
     </row>
     <row r="38" spans="2:6" ht="11.1" customHeight="1">
       <c r="B38" s="13"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
     </row>
     <row r="39" spans="2:6" ht="11.1" customHeight="1">
       <c r="B39" s="13"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
     </row>
     <row r="40" spans="2:6" ht="11.1" customHeight="1">
       <c r="B40" s="13"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
     </row>
     <row r="41" spans="2:6" ht="11.1" customHeight="1">
       <c r="B41" s="13"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
     </row>
     <row r="42" spans="2:6" ht="11.1" customHeight="1">
       <c r="B42" s="13"/>
@@ -1668,15 +1669,14 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:J3"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C36:F37"/>
+    <mergeCell ref="C38:F39"/>
+    <mergeCell ref="C40:F41"/>
+    <mergeCell ref="C26:F27"/>
+    <mergeCell ref="C28:F29"/>
+    <mergeCell ref="C30:F31"/>
+    <mergeCell ref="C32:F33"/>
+    <mergeCell ref="C34:F35"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="B19:J19"/>
@@ -1693,14 +1693,15 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C36:F37"/>
-    <mergeCell ref="C38:F39"/>
-    <mergeCell ref="C40:F41"/>
-    <mergeCell ref="C26:F27"/>
-    <mergeCell ref="C28:F29"/>
-    <mergeCell ref="C30:F31"/>
-    <mergeCell ref="C32:F33"/>
-    <mergeCell ref="C34:F35"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:J3"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.27559055118110237" bottom="0.27559055118110237" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="46" fitToHeight="10000" orientation="portrait" r:id="rId1"/>

--- a/Reports/ForPopulation/InformationBill_UK/InformationBill_UK.xlsx
+++ b/Reports/ForPopulation/InformationBill_UK/InformationBill_UK.xlsx
@@ -616,30 +616,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -665,8 +643,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -967,7 +967,7 @@
   <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H4" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.1" customHeight="1"/>
@@ -977,9 +977,9 @@
     <col min="3" max="3" width="23.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7" style="3" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9" style="3" customWidth="1"/>
     <col min="9" max="9" width="5.28515625" style="3" customWidth="1"/>
     <col min="10" max="10" width="4.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="8.42578125" style="3" customWidth="1"/>
@@ -987,18 +987,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="11.1" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
       <c r="K1" s="27"/>
       <c r="L1" t="s">
         <v>0</v>
@@ -1017,35 +1017,35 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="11.1" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:22" ht="11.1" customHeight="1">
-      <c r="A3" s="39"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="36"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="11.1" customHeight="1">
@@ -1133,53 +1133,53 @@
       <c r="A8" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="59"/>
+      <c r="D8" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="44"/>
+      <c r="J8" s="59"/>
       <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:22" ht="11.1" customHeight="1">
       <c r="A9" s="28"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="46"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="61"/>
       <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:22" ht="11.1" customHeight="1">
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="56"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -1191,10 +1191,10 @@
       <c r="H10" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="58"/>
+      <c r="J10" s="52"/>
       <c r="K10" s="30"/>
       <c r="M10" s="8" t="s">
         <v>1</v>
@@ -1211,12 +1211,12 @@
       <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="1:22" ht="11.1" customHeight="1">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="14"/>
       <c r="G11" s="15" t="s">
         <v>29</v>
@@ -1224,10 +1224,10 @@
       <c r="H11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="59"/>
+      <c r="J11" s="53"/>
       <c r="K11" s="31"/>
       <c r="M11" s="10" t="s">
         <v>32</v>
@@ -1276,53 +1276,53 @@
     </row>
     <row r="13" spans="1:22" ht="11.1" customHeight="1">
       <c r="A13" s="18"/>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="49"/>
+      <c r="J13" s="43"/>
       <c r="K13" s="24"/>
     </row>
     <row r="14" spans="1:22" ht="11.1" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="49"/>
+      <c r="J14" s="43"/>
       <c r="K14" s="24"/>
     </row>
     <row r="15" spans="1:22" ht="11.1" customHeight="1">
       <c r="A15" s="19"/>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="49"/>
+      <c r="J15" s="43"/>
       <c r="K15" s="24"/>
       <c r="M15" s="12" t="s">
         <v>38</v>
@@ -1333,19 +1333,19 @@
     </row>
     <row r="16" spans="1:22" ht="11.1" customHeight="1">
       <c r="A16" s="19"/>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="49"/>
+      <c r="J16" s="43"/>
       <c r="K16" s="24"/>
       <c r="M16" s="12" t="s">
         <v>36</v>
@@ -1368,19 +1368,19 @@
     </row>
     <row r="17" spans="1:22" ht="11.1" customHeight="1">
       <c r="A17" s="19"/>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="49"/>
+      <c r="J17" s="43"/>
       <c r="K17" s="24"/>
       <c r="M17" s="12" t="s">
         <v>36</v>
@@ -1410,17 +1410,17 @@
     </row>
     <row r="19" spans="1:22" ht="11.1" customHeight="1">
       <c r="A19" s="25"/>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="46"/>
       <c r="K19" s="32"/>
       <c r="M19" s="12" t="s">
         <v>38</v>
@@ -1482,121 +1482,121 @@
     </row>
     <row r="26" spans="1:22" ht="11.1" customHeight="1">
       <c r="B26" s="13"/>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
     </row>
     <row r="27" spans="1:22" ht="11.1" customHeight="1">
       <c r="B27" s="13"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
     </row>
     <row r="28" spans="1:22" ht="11.1" customHeight="1">
       <c r="B28" s="13"/>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
     </row>
     <row r="29" spans="1:22" ht="11.1" customHeight="1">
       <c r="B29" s="13"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
     </row>
     <row r="30" spans="1:22" ht="11.1" customHeight="1">
       <c r="B30" s="13"/>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
     </row>
     <row r="31" spans="1:22" ht="11.1" customHeight="1">
       <c r="B31" s="13"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
     </row>
     <row r="32" spans="1:22" ht="11.1" customHeight="1">
       <c r="B32" s="13"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
     </row>
     <row r="33" spans="2:6" ht="11.1" customHeight="1">
       <c r="B33" s="13"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
     </row>
     <row r="34" spans="2:6" ht="11.1" customHeight="1">
       <c r="B34" s="13"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
     </row>
     <row r="35" spans="2:6" ht="11.1" customHeight="1">
       <c r="B35" s="13"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
     </row>
     <row r="36" spans="2:6" ht="11.1" customHeight="1">
       <c r="B36" s="13"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
     </row>
     <row r="37" spans="2:6" ht="11.1" customHeight="1">
       <c r="B37" s="13"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
     </row>
     <row r="38" spans="2:6" ht="11.1" customHeight="1">
       <c r="B38" s="13"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
     </row>
     <row r="39" spans="2:6" ht="11.1" customHeight="1">
       <c r="B39" s="13"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
     </row>
     <row r="40" spans="2:6" ht="11.1" customHeight="1">
       <c r="B40" s="13"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
     </row>
     <row r="41" spans="2:6" ht="11.1" customHeight="1">
       <c r="B41" s="13"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
     </row>
     <row r="42" spans="2:6" ht="11.1" customHeight="1">
       <c r="B42" s="13"/>
@@ -1669,14 +1669,15 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C36:F37"/>
-    <mergeCell ref="C38:F39"/>
-    <mergeCell ref="C40:F41"/>
-    <mergeCell ref="C26:F27"/>
-    <mergeCell ref="C28:F29"/>
-    <mergeCell ref="C30:F31"/>
-    <mergeCell ref="C32:F33"/>
-    <mergeCell ref="C34:F35"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:J3"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="B19:J19"/>
@@ -1693,15 +1694,14 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:J3"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C36:F37"/>
+    <mergeCell ref="C38:F39"/>
+    <mergeCell ref="C40:F41"/>
+    <mergeCell ref="C26:F27"/>
+    <mergeCell ref="C28:F29"/>
+    <mergeCell ref="C30:F31"/>
+    <mergeCell ref="C32:F33"/>
+    <mergeCell ref="C34:F35"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.27559055118110237" bottom="0.27559055118110237" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="46" fitToHeight="10000" orientation="portrait" r:id="rId1"/>

--- a/Reports/ForPopulation/InformationBill_UK/InformationBill_UK.xlsx
+++ b/Reports/ForPopulation/InformationBill_UK/InformationBill_UK.xlsx
@@ -193,9 +193,6 @@
     <t>Начислено руб.</t>
   </si>
   <si>
-    <t>Справка руб.</t>
-  </si>
-  <si>
     <t>Итого руб.</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>EndReport</t>
+  </si>
+  <si>
+    <t>Перерасчет руб.</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,30 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -643,30 +666,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -967,7 +967,7 @@
   <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H1:H1048576"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.1" customHeight="1"/>
@@ -987,18 +987,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="11.1" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
       <c r="K1" s="27"/>
       <c r="L1" t="s">
         <v>0</v>
@@ -1017,35 +1017,35 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="11.1" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
       <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:22" ht="11.1" customHeight="1">
-      <c r="A3" s="54"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="36"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
       <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="11.1" customHeight="1">
@@ -1133,49 +1133,49 @@
       <c r="A8" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="56" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="59"/>
+      <c r="J8" s="45"/>
       <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:22" ht="11.1" customHeight="1">
       <c r="A9" s="28"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:22" ht="11.1" customHeight="1">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="35" t="s">
         <v>55</v>
       </c>
@@ -1191,10 +1191,10 @@
       <c r="H10" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="I10" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="52"/>
+      <c r="J10" s="59"/>
       <c r="K10" s="30"/>
       <c r="M10" s="8" t="s">
         <v>1</v>
@@ -1211,12 +1211,12 @@
       <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="1:22" ht="11.1" customHeight="1">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="14"/>
       <c r="G11" s="15" t="s">
         <v>29</v>
@@ -1224,10 +1224,10 @@
       <c r="H11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="53"/>
+      <c r="J11" s="60"/>
       <c r="K11" s="31"/>
       <c r="M11" s="10" t="s">
         <v>32</v>
@@ -1276,53 +1276,53 @@
     </row>
     <row r="13" spans="1:22" ht="11.1" customHeight="1">
       <c r="A13" s="18"/>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42" t="s">
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="43"/>
+      <c r="J13" s="50"/>
       <c r="K13" s="24"/>
     </row>
     <row r="14" spans="1:22" ht="11.1" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42" t="s">
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="43"/>
+      <c r="J14" s="50"/>
       <c r="K14" s="24"/>
     </row>
     <row r="15" spans="1:22" ht="11.1" customHeight="1">
       <c r="A15" s="19"/>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42" t="s">
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="43"/>
+      <c r="J15" s="50"/>
       <c r="K15" s="24"/>
       <c r="M15" s="12" t="s">
         <v>38</v>
@@ -1333,60 +1333,60 @@
     </row>
     <row r="16" spans="1:22" ht="11.1" customHeight="1">
       <c r="A16" s="19"/>
-      <c r="B16" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" s="43"/>
+      <c r="B16" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="50"/>
       <c r="K16" s="24"/>
       <c r="M16" s="12" t="s">
         <v>36</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O16" s="12">
         <v>1</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>38</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="11.1" customHeight="1">
       <c r="A17" s="19"/>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="43"/>
+      <c r="J17" s="50"/>
       <c r="K17" s="24"/>
       <c r="M17" s="12" t="s">
         <v>36</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O17" s="12">
         <v>3</v>
@@ -1410,23 +1410,23 @@
     </row>
     <row r="19" spans="1:22" ht="11.1" customHeight="1">
       <c r="A19" s="25"/>
-      <c r="B19" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="46"/>
+      <c r="B19" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53"/>
       <c r="K19" s="32"/>
       <c r="M19" s="12" t="s">
         <v>38</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T19" s="8" t="s">
         <v>35</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="21" spans="1:22" ht="11.1" customHeight="1">
       <c r="M21" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="11.1" customHeight="1">
@@ -1482,121 +1482,121 @@
     </row>
     <row r="26" spans="1:22" ht="11.1" customHeight="1">
       <c r="B26" s="13"/>
-      <c r="C26" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
+      <c r="C26" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
     </row>
     <row r="27" spans="1:22" ht="11.1" customHeight="1">
       <c r="B27" s="13"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
     </row>
     <row r="28" spans="1:22" ht="11.1" customHeight="1">
       <c r="B28" s="13"/>
-      <c r="C28" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
+      <c r="C28" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
     </row>
     <row r="29" spans="1:22" ht="11.1" customHeight="1">
       <c r="B29" s="13"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
     </row>
     <row r="30" spans="1:22" ht="11.1" customHeight="1">
       <c r="B30" s="13"/>
-      <c r="C30" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
+      <c r="C30" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
     </row>
     <row r="31" spans="1:22" ht="11.1" customHeight="1">
       <c r="B31" s="13"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
     </row>
     <row r="32" spans="1:22" ht="11.1" customHeight="1">
       <c r="B32" s="13"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
     </row>
     <row r="33" spans="2:6" ht="11.1" customHeight="1">
       <c r="B33" s="13"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
     </row>
     <row r="34" spans="2:6" ht="11.1" customHeight="1">
       <c r="B34" s="13"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
     </row>
     <row r="35" spans="2:6" ht="11.1" customHeight="1">
       <c r="B35" s="13"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
     </row>
     <row r="36" spans="2:6" ht="11.1" customHeight="1">
       <c r="B36" s="13"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
     </row>
     <row r="37" spans="2:6" ht="11.1" customHeight="1">
       <c r="B37" s="13"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
     </row>
     <row r="38" spans="2:6" ht="11.1" customHeight="1">
       <c r="B38" s="13"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
     </row>
     <row r="39" spans="2:6" ht="11.1" customHeight="1">
       <c r="B39" s="13"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
     </row>
     <row r="40" spans="2:6" ht="11.1" customHeight="1">
       <c r="B40" s="13"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
     </row>
     <row r="41" spans="2:6" ht="11.1" customHeight="1">
       <c r="B41" s="13"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
     </row>
     <row r="42" spans="2:6" ht="11.1" customHeight="1">
       <c r="B42" s="13"/>
@@ -1669,15 +1669,14 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:J3"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C36:F37"/>
+    <mergeCell ref="C38:F39"/>
+    <mergeCell ref="C40:F41"/>
+    <mergeCell ref="C26:F27"/>
+    <mergeCell ref="C28:F29"/>
+    <mergeCell ref="C30:F31"/>
+    <mergeCell ref="C32:F33"/>
+    <mergeCell ref="C34:F35"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="B19:J19"/>
@@ -1694,14 +1693,15 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C36:F37"/>
-    <mergeCell ref="C38:F39"/>
-    <mergeCell ref="C40:F41"/>
-    <mergeCell ref="C26:F27"/>
-    <mergeCell ref="C28:F29"/>
-    <mergeCell ref="C30:F31"/>
-    <mergeCell ref="C32:F33"/>
-    <mergeCell ref="C34:F35"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:J3"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.27559055118110237" bottom="0.27559055118110237" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="46" fitToHeight="10000" orientation="portrait" r:id="rId1"/>
